--- a/results/4.2_computational_findings_final.xlsx
+++ b/results/4.2_computational_findings_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanmoydas/Documents/GitHub/MIP-Python-Lamoscad/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A5D8D6-C4C2-CF4B-9F86-6318BC319DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F63AEE-3031-1D4D-9B48-69F2B0FF186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab4. experimental design" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="tab6. asset allocation" sheetId="2" r:id="rId3"/>
     <sheet name="tab7. BnC_vs_MILP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -302,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +346,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -414,11 +435,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -452,7 +484,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,10 +1228,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="171" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1230,17 +1265,17 @@
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="19">
-        <v>339.08</v>
-      </c>
-      <c r="D2" s="19">
-        <v>1.18</v>
+        <v>355.24</v>
+      </c>
+      <c r="D2">
+        <v>1.08</v>
       </c>
       <c r="E2" s="19">
-        <v>352.65</v>
+        <v>355.24</v>
       </c>
       <c r="F2" s="5">
         <v>0.33</v>
@@ -1250,17 +1285,17 @@
       <c r="A3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="19">
-        <v>339.08</v>
-      </c>
-      <c r="D3" s="19">
-        <v>1.35</v>
+        <v>374.3</v>
+      </c>
+      <c r="D3">
+        <v>1.27</v>
       </c>
       <c r="E3" s="19">
-        <v>352.65</v>
+        <v>374.3</v>
       </c>
       <c r="F3" s="5">
         <v>0.33</v>
@@ -1270,17 +1305,17 @@
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" t="s">
         <v>55</v>
       </c>
       <c r="C4" s="19">
-        <v>350.34</v>
-      </c>
-      <c r="D4" s="19">
-        <v>6.65</v>
+        <v>378</v>
+      </c>
+      <c r="D4">
+        <v>3.08</v>
       </c>
       <c r="E4" s="19">
-        <v>354.16</v>
+        <v>378</v>
       </c>
       <c r="F4" s="5">
         <v>0.48</v>
@@ -1290,17 +1325,17 @@
       <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="19">
-        <v>350.53</v>
-      </c>
-      <c r="D5" s="19">
-        <v>14.31</v>
+        <v>378.45</v>
+      </c>
+      <c r="D5">
+        <v>5.28</v>
       </c>
       <c r="E5" s="19">
-        <v>354.2</v>
+        <v>378.41</v>
       </c>
       <c r="F5" s="5">
         <v>0.84</v>
@@ -1310,17 +1345,17 @@
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="19">
-        <v>474.11</v>
-      </c>
-      <c r="D6" s="19">
-        <v>1.82</v>
+        <v>497.83</v>
+      </c>
+      <c r="D6">
+        <v>2.0099999999999998</v>
       </c>
       <c r="E6" s="19">
-        <v>491.52</v>
+        <v>497.83</v>
       </c>
       <c r="F6" s="5">
         <v>0.46</v>
@@ -1330,17 +1365,17 @@
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="19">
-        <v>474.1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1.81</v>
+        <v>525.5</v>
+      </c>
+      <c r="D7">
+        <v>1.87</v>
       </c>
       <c r="E7" s="19">
-        <v>491.52</v>
+        <v>525.5</v>
       </c>
       <c r="F7" s="5">
         <v>0.45</v>
@@ -1350,17 +1385,17 @@
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="19">
-        <v>489.13</v>
-      </c>
-      <c r="D8" s="19">
-        <v>10.5</v>
+        <v>529.78</v>
+      </c>
+      <c r="D8">
+        <v>5.91</v>
       </c>
       <c r="E8" s="19">
-        <v>494.02</v>
+        <v>529.72</v>
       </c>
       <c r="F8" s="5">
         <v>0.79</v>
@@ -1370,17 +1405,17 @@
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="19">
-        <v>489.55</v>
-      </c>
-      <c r="D9" s="19">
-        <v>52.26</v>
+        <v>530.71</v>
+      </c>
+      <c r="D9">
+        <v>10.29</v>
       </c>
       <c r="E9" s="19">
-        <v>494.09</v>
+        <v>530.71</v>
       </c>
       <c r="F9" s="5">
         <v>1.21</v>
@@ -1390,17 +1425,17 @@
       <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="19">
-        <v>663.44</v>
-      </c>
-      <c r="D10" s="19">
-        <v>3.05</v>
+        <v>686.37</v>
+      </c>
+      <c r="D10">
+        <v>2.72</v>
       </c>
       <c r="E10" s="19">
-        <v>690.11</v>
+        <v>686.37</v>
       </c>
       <c r="F10" s="5">
         <v>0.67</v>
@@ -1410,17 +1445,17 @@
       <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="19">
-        <v>663.43</v>
-      </c>
-      <c r="D11" s="19">
-        <v>3.01</v>
+        <v>730.05</v>
+      </c>
+      <c r="D11">
+        <v>2.2999999999999998</v>
       </c>
       <c r="E11" s="19">
-        <v>690.11</v>
+        <v>730.05</v>
       </c>
       <c r="F11" s="5">
         <v>0.72</v>
@@ -1430,17 +1465,17 @@
       <c r="A12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="19">
-        <v>683.25</v>
-      </c>
-      <c r="D12" s="19">
-        <v>21.22</v>
+        <v>736.78</v>
+      </c>
+      <c r="D12">
+        <v>12.11</v>
       </c>
       <c r="E12" s="19">
-        <v>693.15</v>
+        <v>736.78</v>
       </c>
       <c r="F12" s="5">
         <v>1.21</v>
@@ -1450,17 +1485,17 @@
       <c r="A13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="19">
-        <v>683.8</v>
-      </c>
-      <c r="D13" s="19">
-        <v>62.72</v>
+        <v>737.86</v>
+      </c>
+      <c r="D13">
+        <v>23.12</v>
       </c>
       <c r="E13" s="19">
-        <v>693.23</v>
+        <v>737.86</v>
       </c>
       <c r="F13" s="5">
         <v>1.72</v>
@@ -1470,17 +1505,17 @@
       <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="19">
-        <v>850.64</v>
-      </c>
-      <c r="D14" s="19">
-        <v>5.77</v>
+        <v>884.86</v>
+      </c>
+      <c r="D14">
+        <v>3.35</v>
       </c>
       <c r="E14" s="19">
-        <v>880.8</v>
+        <v>884.86</v>
       </c>
       <c r="F14" s="5">
         <v>0.83</v>
@@ -1490,17 +1525,17 @@
       <c r="A15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" t="s">
         <v>71</v>
       </c>
       <c r="C15" s="19">
-        <v>850.65</v>
-      </c>
-      <c r="D15" s="19">
-        <v>5.35</v>
+        <v>934.78</v>
+      </c>
+      <c r="D15">
+        <v>4.88</v>
       </c>
       <c r="E15" s="19">
-        <v>880.8</v>
+        <v>934.71</v>
       </c>
       <c r="F15" s="5">
         <v>0.85</v>
@@ -1510,17 +1545,17 @@
       <c r="A16" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" t="s">
         <v>74</v>
       </c>
       <c r="C16" s="19">
-        <v>874.12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>36.17</v>
+        <v>941.52</v>
+      </c>
+      <c r="D16">
+        <v>22.12</v>
       </c>
       <c r="E16" s="19">
-        <v>884.44</v>
+        <v>941.52</v>
       </c>
       <c r="F16" s="5">
         <v>1.37</v>
@@ -1530,17 +1565,17 @@
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="19">
-        <v>874.79</v>
-      </c>
-      <c r="D17" s="19">
-        <v>63.06</v>
+        <v>942.86</v>
+      </c>
+      <c r="D17">
+        <v>73.69</v>
       </c>
       <c r="E17" s="19">
-        <v>884.55</v>
+        <v>942.86</v>
       </c>
       <c r="F17" s="5">
         <v>2.11</v>
@@ -1550,17 +1585,17 @@
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" t="s">
         <v>78</v>
       </c>
       <c r="C18" s="19">
-        <v>1287.6300000000001</v>
-      </c>
-      <c r="D18" s="19">
-        <v>8.11</v>
+        <v>1349.44</v>
+      </c>
+      <c r="D18">
+        <v>7.88</v>
       </c>
       <c r="E18" s="19">
-        <v>1331.18</v>
+        <v>1349.44</v>
       </c>
       <c r="F18" s="5">
         <v>1.21</v>
@@ -1570,17 +1605,17 @@
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="19">
-        <v>1287.6099999999999</v>
-      </c>
-      <c r="D19" s="19">
-        <v>5.51</v>
+        <v>1410.74</v>
+      </c>
+      <c r="D19">
+        <v>10.8</v>
       </c>
       <c r="E19" s="19">
-        <v>1331.18</v>
+        <v>1410.74</v>
       </c>
       <c r="F19" s="5">
         <v>1.28</v>
@@ -1590,17 +1625,17 @@
       <c r="A20" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="19">
-        <v>1321.41</v>
-      </c>
-      <c r="D20" s="19">
-        <v>62.72</v>
+        <v>1422.1</v>
+      </c>
+      <c r="D20">
+        <v>54.71</v>
       </c>
       <c r="E20" s="19">
-        <v>1336.76</v>
+        <v>1422.1</v>
       </c>
       <c r="F20" s="5">
         <v>1.95</v>
@@ -1610,17 +1645,17 @@
       <c r="A21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" t="s">
         <v>83</v>
       </c>
       <c r="C21" s="19">
-        <v>1322.43</v>
-      </c>
-      <c r="D21" s="19">
-        <v>64.52</v>
+        <v>1424.08</v>
+      </c>
+      <c r="D21">
+        <v>265.3</v>
       </c>
       <c r="E21" s="19">
-        <v>1336.92</v>
+        <v>1424.08</v>
       </c>
       <c r="F21" s="5">
         <v>3.33</v>
@@ -1630,17 +1665,17 @@
       <c r="A22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" t="s">
         <v>85</v>
       </c>
       <c r="C22" s="19">
-        <v>1700.4</v>
-      </c>
-      <c r="D22" s="19">
-        <v>11.59</v>
+        <v>1780.25</v>
+      </c>
+      <c r="D22">
+        <v>13.16</v>
       </c>
       <c r="E22" s="19">
-        <v>1770.69</v>
+        <v>1780.25</v>
       </c>
       <c r="F22" s="5">
         <v>1.93</v>
@@ -1650,17 +1685,17 @@
       <c r="A23" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="19">
-        <v>1700.39</v>
-      </c>
-      <c r="D23" s="19">
-        <v>7.46</v>
+        <v>1873.17</v>
+      </c>
+      <c r="D23">
+        <v>10.81</v>
       </c>
       <c r="E23" s="19">
-        <v>1770.69</v>
+        <v>1873.17</v>
       </c>
       <c r="F23" s="5">
         <v>1.81</v>
@@ -1670,17 +1705,17 @@
       <c r="A24" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="19">
-        <v>1758.36</v>
-      </c>
-      <c r="D24" s="19">
-        <v>63.53</v>
+        <v>1892.88</v>
+      </c>
+      <c r="D24">
+        <v>95.94</v>
       </c>
       <c r="E24" s="19">
-        <v>1778.14</v>
+        <v>1892.88</v>
       </c>
       <c r="F24" s="5">
         <v>2.4500000000000002</v>
@@ -1690,20 +1725,31 @@
       <c r="A25" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="7">
-        <v>1759.49</v>
-      </c>
-      <c r="D25" s="7">
-        <v>65.45</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1778.35</v>
+      <c r="C25" s="19">
+        <v>1895.42</v>
+      </c>
+      <c r="D25">
+        <v>437.92</v>
+      </c>
+      <c r="E25" s="22">
+        <v>1895.42</v>
       </c>
       <c r="F25" s="8">
         <v>3.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26" s="21">
+        <f>AVERAGE(D2:D25)</f>
+        <v>44.65</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21">
+        <f>AVERAGE(F2:F25)</f>
+        <v>1.3466666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/results/4.2_computational_findings_final.xlsx
+++ b/results/4.2_computational_findings_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanmoydas/Documents/GitHub/MIP-Python-Lamoscad/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F63AEE-3031-1D4D-9B48-69F2B0FF186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0BF625-5BC4-8248-BFE8-D101C0FA1FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab4. experimental design" sheetId="4" r:id="rId1"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E9C895-342B-934C-BA8D-ACEB55E808FA}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="287" zoomScaleNormal="287" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="287" zoomScaleNormal="287" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,8 +839,8 @@
       <c r="D2" s="12">
         <v>182.46</v>
       </c>
-      <c r="E2" s="12">
-        <v>267.45999999999998</v>
+      <c r="E2">
+        <v>441.56</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>39</v>
@@ -862,8 +862,8 @@
       <c r="D3" s="12">
         <v>225.13</v>
       </c>
-      <c r="E3" s="12">
-        <v>1956.36</v>
+      <c r="E3">
+        <v>2498.75</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>41</v>
@@ -885,8 +885,8 @@
       <c r="D4" s="12">
         <v>192.81</v>
       </c>
-      <c r="E4" s="12">
-        <v>2587.77</v>
+      <c r="E4">
+        <v>832.59</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>39</v>
@@ -908,8 +908,8 @@
       <c r="D5" s="12">
         <v>229.36</v>
       </c>
-      <c r="E5" s="12">
-        <v>2676.35</v>
+      <c r="E5">
+        <v>2521.25</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>44</v>
@@ -931,8 +931,8 @@
       <c r="D6" s="12">
         <v>232.67</v>
       </c>
-      <c r="E6" s="12">
-        <v>3215.68</v>
+      <c r="E6">
+        <v>2538.75</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>46</v>
@@ -954,8 +954,8 @@
       <c r="D7" s="15">
         <v>232.77</v>
       </c>
-      <c r="E7" s="15">
-        <v>4022.32</v>
+      <c r="E7">
+        <v>2566.25</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>46</v>
@@ -1230,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
